--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928A234B-8954-B04A-8898-149713A487D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D641F-3E66-2145-95B4-0A7F04F6C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Section</t>
   </si>
@@ -89,9 +89,6 @@
     <t>80D</t>
   </si>
   <si>
-    <t>Medical Insurance</t>
-  </si>
-  <si>
     <t>80DDB</t>
   </si>
   <si>
@@ -104,22 +101,13 @@
     <t>Contibution by individuals to NGO/Charity/Political Parties</t>
   </si>
   <si>
-    <t>https://enps.nsdl.com/eNPS/NationalPensionSystem.html</t>
-  </si>
-  <si>
     <t>Refer income tax website</t>
-  </si>
-  <si>
-    <t>Investment in PPF account</t>
   </si>
   <si>
     <t xml:space="preserve">New Regime is by default option from FY 2023-2024. Old Regime is better for high income individuals(&gt;15 LPA) as tax investments options are more despite higher tax outgo. 
 New Regime is better for low income individuals as tax investment are options are less along with lower tax rates. </t>
   </si>
   <si>
-    <t>Outside vendor (Eg: HDFC) are preferred due to cheaper topup compared to topup from company's insurance partner</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -139,13 +127,51 @@
   </si>
   <si>
     <t>PPFO - 7-8%</t>
+  </si>
+  <si>
+    <t>Investment Limits A minimum of Rs.500.00 subject to a maximum of Rs.1,50,000 per annum may be deposited.</t>
+  </si>
+  <si>
+    <t>Investment in PPFO account</t>
+  </si>
+  <si>
+    <t>Employer Contribution to PF</t>
+  </si>
+  <si>
+    <t>Medical Insurance (Parent, Spouse and upto 2 children (w/o voluntary top-up))</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(Tier-1 account for tax investment purposes/ Tier 2 is a savings account)Minimum annual contribution of Rs. 1000 to keep account active</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://enps.nsdl.com/eNPS/NationalPensionSystem.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Outside vendor (Eg: HDFC) are preferred due to cheaper topup compared to topup from company's insurance partner.
+As on this date, cover of 10 lacs is preferred over 5 lacs cover.   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +195,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,11 +299,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -293,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,32 +647,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD7AA7-4E73-7145-ACBD-040C41006BFD}">
   <dimension ref="B13:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
     <col min="5" max="5" width="97.6640625" customWidth="1"/>
     <col min="6" max="6" width="102.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -656,15 +692,17 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
@@ -674,14 +712,16 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2">
         <v>150000</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>3</v>
       </c>
@@ -694,8 +734,8 @@
       <c r="E25" s="2">
         <v>50000</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>23</v>
+      <c r="F25" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -743,7 +783,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>7</v>
       </c>
@@ -751,13 +791,13 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -765,13 +805,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -780,48 +820,48 @@
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +870,7 @@
     <mergeCell ref="B21:F21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F25" r:id="rId1" xr:uid="{14289191-0417-F74F-82A9-CBCBDA85E1F4}"/>
+    <hyperlink ref="F25" r:id="rId1" display="https://enps.nsdl.com/eNPS/NationalPensionSystem.html" xr:uid="{14289191-0417-F74F-82A9-CBCBDA85E1F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011D641F-3E66-2145-95B4-0A7F04F6C90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410B783-D271-0647-A213-CD9E8540D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Section</t>
   </si>
@@ -165,6 +165,36 @@
   <si>
     <t>Outside vendor (Eg: HDFC) are preferred due to cheaper topup compared to topup from company's insurance partner.
 As on this date, cover of 10 lacs is preferred over 5 lacs cover.   </t>
+  </si>
+  <si>
+    <t>No investment proofs are required in the New regime.</t>
+  </si>
+  <si>
+    <t>Tax under old regime</t>
+  </si>
+  <si>
+    <t>Example Income</t>
+  </si>
+  <si>
+    <t>8 lacs per annum</t>
+  </si>
+  <si>
+    <t>70K</t>
+  </si>
+  <si>
+    <t>15 lacs per annum</t>
+  </si>
+  <si>
+    <t>98K</t>
+  </si>
+  <si>
+    <t>5 lacs per annum</t>
+  </si>
+  <si>
+    <t>20 - 30 lacs per annum</t>
+  </si>
+  <si>
+    <t>upto 4 lacs</t>
   </si>
 </sst>
 </file>
@@ -299,10 +329,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -324,12 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD7AA7-4E73-7145-ACBD-040C41006BFD}">
-  <dimension ref="B13:F41"/>
+  <dimension ref="B13:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,13 +693,13 @@
   <sheetData>
     <row r="13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -734,7 +765,7 @@
       <c r="E25" s="2">
         <v>50000</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -796,7 +827,7 @@
       <c r="E29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -829,20 +860,29 @@
       <c r="F31" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
@@ -853,21 +893,71 @@
       <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B33:F34"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F25" r:id="rId1" display="https://enps.nsdl.com/eNPS/NationalPensionSystem.html" xr:uid="{14289191-0417-F74F-82A9-CBCBDA85E1F4}"/>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410B783-D271-0647-A213-CD9E8540D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D096B-572A-154C-B4E0-E00BD7F3F13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>80GGC</t>
   </si>
   <si>
-    <t>Contibution by individuals to NGO/Charity/Political Parties</t>
-  </si>
-  <si>
     <t>Refer income tax website</t>
   </si>
   <si>
@@ -139,6 +136,40 @@
   </si>
   <si>
     <t>Medical Insurance (Parent, Spouse and upto 2 children (w/o voluntary top-up))</t>
+  </si>
+  <si>
+    <t>Outside vendor (Eg: HDFC) are preferred due to cheaper topup compared to topup from company's insurance partner.
+As on this date, cover of 10 lacs is preferred over 5 lacs cover.   </t>
+  </si>
+  <si>
+    <t>No investment proofs are required in the New regime.</t>
+  </si>
+  <si>
+    <t>Tax under old regime</t>
+  </si>
+  <si>
+    <t>Example Income</t>
+  </si>
+  <si>
+    <t>8 lacs per annum</t>
+  </si>
+  <si>
+    <t>70K</t>
+  </si>
+  <si>
+    <t>15 lacs per annum</t>
+  </si>
+  <si>
+    <t>98K</t>
+  </si>
+  <si>
+    <t>5 lacs per annum</t>
+  </si>
+  <si>
+    <t>20 - 30 lacs per annum</t>
+  </si>
+  <si>
+    <t>upto 4 lacs</t>
   </si>
   <si>
     <r>
@@ -147,7 +178,24 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Tier-1 account for tax investment purposes/ Tier 2 is a savings account)Minimum annual contribution of Rs. 1000 to keep account active</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Tier-1 account for tax investment purposes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>/ Tier 2 is a savings account)Minimum annual contribution of Rs. 1000 to keep account active</t>
     </r>
     <r>
       <rPr>
@@ -163,45 +211,14 @@
     </r>
   </si>
   <si>
-    <t>Outside vendor (Eg: HDFC) are preferred due to cheaper topup compared to topup from company's insurance partner.
-As on this date, cover of 10 lacs is preferred over 5 lacs cover.   </t>
-  </si>
-  <si>
-    <t>No investment proofs are required in the New regime.</t>
-  </si>
-  <si>
-    <t>Tax under old regime</t>
-  </si>
-  <si>
-    <t>Example Income</t>
-  </si>
-  <si>
-    <t>8 lacs per annum</t>
-  </si>
-  <si>
-    <t>70K</t>
-  </si>
-  <si>
-    <t>15 lacs per annum</t>
-  </si>
-  <si>
-    <t>98K</t>
-  </si>
-  <si>
-    <t>5 lacs per annum</t>
-  </si>
-  <si>
-    <t>20 - 30 lacs per annum</t>
-  </si>
-  <si>
-    <t>upto 4 lacs</t>
+    <t>Contribution by individuals to NGO/Charity/Political Parties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +247,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -360,7 +383,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,12 +700,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD7AA7-4E73-7145-ACBD-040C41006BFD}">
   <dimension ref="B13:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="70.1640625" customWidth="1"/>
@@ -703,7 +726,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>0</v>
@@ -723,16 +746,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -743,13 +766,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2">
         <v>150000</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -766,7 +789,7 @@
         <v>50000</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -822,13 +845,13 @@
         <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -842,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -854,14 +877,14 @@
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -877,7 +900,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -886,71 +909,62 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="12"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D096B-572A-154C-B4E0-E00BD7F3F13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA2BB64-4A46-CB4A-9513-92971CFF8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Section</t>
   </si>
@@ -212,6 +212,24 @@
   </si>
   <si>
     <t>Contribution by individuals to NGO/Charity/Political Parties</t>
+  </si>
+  <si>
+    <t>30 - 40 lacs per annum</t>
+  </si>
+  <si>
+    <t>50 - 80 lacs per annum</t>
+  </si>
+  <si>
+    <t>&gt; 80 lacs per annum</t>
+  </si>
+  <si>
+    <t>why care?</t>
+  </si>
+  <si>
+    <t>6 - 10 lacs</t>
+  </si>
+  <si>
+    <t>12 - 36 lacs</t>
   </si>
 </sst>
 </file>
@@ -352,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -383,6 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD7AA7-4E73-7145-ACBD-040C41006BFD}">
-  <dimension ref="B13:F48"/>
+  <dimension ref="B13:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,6 +986,30 @@
         <v>44</v>
       </c>
     </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B33:F34"/>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA2BB64-4A46-CB4A-9513-92971CFF8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C589CC-AD11-4542-B108-53D1A1979851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -229,7 +229,7 @@
     <t>6 - 10 lacs</t>
   </si>
   <si>
-    <t>12 - 36 lacs</t>
+    <t>12 - 30 lacs</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -401,7 +401,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,7 +719,7 @@
   <dimension ref="B13:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,26 +986,26 @@
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C589CC-AD11-4542-B108-53D1A1979851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A8F11D-3E85-4340-BB72-CE800F5F702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="B13:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A8F11D-3E85-4340-BB72-CE800F5F702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD4FEB-FD69-1B48-ACCD-6ECD01675E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="B13:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tax_investments_helper.xlsx
+++ b/tax_investments_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramattoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BD4FEB-FD69-1B48-ACCD-6ECD01675E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A99B5A-0471-8141-8013-F7D993BA1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{AAA988AA-2678-AC41-A346-5AEE85AC990A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Section</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>20 - 30 lacs per annum</t>
-  </si>
-  <si>
-    <t>upto 4 lacs</t>
   </si>
   <si>
     <r>
@@ -230,6 +227,48 @@
   </si>
   <si>
     <t>12 - 30 lacs</t>
+  </si>
+  <si>
+    <t>3 - 5 lacs</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>1.5L</t>
+  </si>
+  <si>
+    <t>PPFO</t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t>0.5L</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>6.0L - 12.0L</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>10.5L - 16.5L</t>
+  </si>
+  <si>
+    <t>Max Tax Investments (under old regime)</t>
   </si>
 </sst>
 </file>
@@ -716,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCD7AA7-4E73-7145-ACBD-040C41006BFD}">
-  <dimension ref="B13:F51"/>
+  <dimension ref="B13:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +846,7 @@
         <v>50000</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -895,7 +934,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -982,31 +1021,87 @@
         <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>50</v>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
